--- a/Linear_Programming.xlsx
+++ b/Linear_Programming.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yash/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yash/Documents/Github/EnterpriseAnalytics/Enterprise_Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78B8DE8-1ACF-C041-A0B1-4BD70450034F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3233F3D-09C9-B74A-9EB9-75B131018427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{765EA2BA-F1BD-D640-81B6-81BB82D13FD9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19140" xr2:uid="{765EA2BA-F1BD-D640-81B6-81BB82D13FD9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Book 1" sheetId="1" r:id="rId1"/>
     <sheet name="Answer Report 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sensitivity Report 1" sheetId="3" r:id="rId3"/>
-    <sheet name="Problem 2" sheetId="5" r:id="rId4"/>
+    <sheet name="Book 2" sheetId="5" r:id="rId4"/>
     <sheet name="Answer Report 2" sheetId="6" r:id="rId5"/>
     <sheet name="Sensitivity Report 2" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 1'!$C$3:$C$5</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'Problem 2'!$C$13:$O$16</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Book 1'!$C$3:$C$5</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Book 2'!$C$13:$O$16</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
@@ -31,28 +31,28 @@
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 1'!$C$11</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Problem 2'!$C$17</definedName>
-    <definedName name="solver_lhs10" localSheetId="3" hidden="1">'Problem 2'!$L$17</definedName>
-    <definedName name="solver_lhs11" localSheetId="3" hidden="1">'Problem 2'!$M$17</definedName>
-    <definedName name="solver_lhs12" localSheetId="3" hidden="1">'Problem 2'!$N$17</definedName>
-    <definedName name="solver_lhs13" localSheetId="3" hidden="1">'Problem 2'!$O$17</definedName>
-    <definedName name="solver_lhs14" localSheetId="3" hidden="1">'Problem 2'!$P$13</definedName>
-    <definedName name="solver_lhs15" localSheetId="3" hidden="1">'Problem 2'!$P$14</definedName>
-    <definedName name="solver_lhs16" localSheetId="3" hidden="1">'Problem 2'!$P$15</definedName>
-    <definedName name="solver_lhs17" localSheetId="3" hidden="1">'Problem 2'!$P$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 1'!$C$12</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Problem 2'!$D$17</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 1'!$C$10</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Problem 2'!$E$17</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Problem 1'!$C$3:$C$5</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Problem 2'!$F$17</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Problem 1'!$C$3:$C$5</definedName>
-    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Problem 2'!$G$17</definedName>
-    <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Problem 2'!$H$17</definedName>
-    <definedName name="solver_lhs7" localSheetId="3" hidden="1">'Problem 2'!$I$17</definedName>
-    <definedName name="solver_lhs8" localSheetId="3" hidden="1">'Problem 2'!$J$17</definedName>
-    <definedName name="solver_lhs9" localSheetId="3" hidden="1">'Problem 2'!$K$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Book 1'!$C$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Book 2'!$C$17</definedName>
+    <definedName name="solver_lhs10" localSheetId="3" hidden="1">'Book 2'!$L$17</definedName>
+    <definedName name="solver_lhs11" localSheetId="3" hidden="1">'Book 2'!$M$17</definedName>
+    <definedName name="solver_lhs12" localSheetId="3" hidden="1">'Book 2'!$N$17</definedName>
+    <definedName name="solver_lhs13" localSheetId="3" hidden="1">'Book 2'!$O$17</definedName>
+    <definedName name="solver_lhs14" localSheetId="3" hidden="1">'Book 2'!$P$13</definedName>
+    <definedName name="solver_lhs15" localSheetId="3" hidden="1">'Book 2'!$P$14</definedName>
+    <definedName name="solver_lhs16" localSheetId="3" hidden="1">'Book 2'!$P$15</definedName>
+    <definedName name="solver_lhs17" localSheetId="3" hidden="1">'Book 2'!$P$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Book 1'!$C$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Book 2'!$D$17</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Book 1'!$C$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Book 2'!$E$17</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Book 1'!$C$3:$C$5</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Book 2'!$F$17</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Book 1'!$C$3:$C$5</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Book 2'!$G$17</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Book 2'!$H$17</definedName>
+    <definedName name="solver_lhs7" localSheetId="3" hidden="1">'Book 2'!$I$17</definedName>
+    <definedName name="solver_lhs8" localSheetId="3" hidden="1">'Book 2'!$J$17</definedName>
+    <definedName name="solver_lhs9" localSheetId="3" hidden="1">'Book 2'!$K$17</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
@@ -69,8 +69,8 @@
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">17</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 1'!$C$7</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'Problem 2'!$C$19</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Book 1'!$C$7</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Book 2'!$C$19</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
@@ -97,28 +97,28 @@
     <definedName name="solver_rel7" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel8" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel9" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 1'!$P$4</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'Problem 2'!$C$7</definedName>
-    <definedName name="solver_rhs10" localSheetId="3" hidden="1">'Problem 2'!$L$7</definedName>
-    <definedName name="solver_rhs11" localSheetId="3" hidden="1">'Problem 2'!$M$7</definedName>
-    <definedName name="solver_rhs12" localSheetId="3" hidden="1">'Problem 2'!$N$7</definedName>
-    <definedName name="solver_rhs13" localSheetId="3" hidden="1">'Problem 2'!$O$7</definedName>
-    <definedName name="solver_rhs14" localSheetId="3" hidden="1">'Problem 2'!$P$3</definedName>
-    <definedName name="solver_rhs15" localSheetId="3" hidden="1">'Problem 2'!$P$4</definedName>
-    <definedName name="solver_rhs16" localSheetId="3" hidden="1">'Problem 2'!$P$5</definedName>
-    <definedName name="solver_rhs17" localSheetId="3" hidden="1">'Problem 2'!$P$6</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 1'!$P$5</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Problem 2'!$D$7</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 1'!$P$3</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Problem 2'!$E$7</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Problem 1'!$E$3:$E$5</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">'Problem 2'!$F$7</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Problem 1'!$D$3:$D$5</definedName>
-    <definedName name="solver_rhs5" localSheetId="3" hidden="1">'Problem 2'!$G$7</definedName>
-    <definedName name="solver_rhs6" localSheetId="3" hidden="1">'Problem 2'!$H$7</definedName>
-    <definedName name="solver_rhs7" localSheetId="3" hidden="1">'Problem 2'!$I$7</definedName>
-    <definedName name="solver_rhs8" localSheetId="3" hidden="1">'Problem 2'!$J$7</definedName>
-    <definedName name="solver_rhs9" localSheetId="3" hidden="1">'Problem 2'!$K$7</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Book 1'!$P$4</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'Book 2'!$C$7</definedName>
+    <definedName name="solver_rhs10" localSheetId="3" hidden="1">'Book 2'!$L$7</definedName>
+    <definedName name="solver_rhs11" localSheetId="3" hidden="1">'Book 2'!$M$7</definedName>
+    <definedName name="solver_rhs12" localSheetId="3" hidden="1">'Book 2'!$N$7</definedName>
+    <definedName name="solver_rhs13" localSheetId="3" hidden="1">'Book 2'!$O$7</definedName>
+    <definedName name="solver_rhs14" localSheetId="3" hidden="1">'Book 2'!$P$3</definedName>
+    <definedName name="solver_rhs15" localSheetId="3" hidden="1">'Book 2'!$P$4</definedName>
+    <definedName name="solver_rhs16" localSheetId="3" hidden="1">'Book 2'!$P$5</definedName>
+    <definedName name="solver_rhs17" localSheetId="3" hidden="1">'Book 2'!$P$6</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Book 1'!$P$5</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Book 2'!$D$7</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Book 1'!$P$3</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'Book 2'!$E$7</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Book 1'!$E$3:$E$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">'Book 2'!$F$7</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Book 1'!$D$3:$D$5</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">'Book 2'!$G$7</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">'Book 2'!$H$7</definedName>
+    <definedName name="solver_rhs7" localSheetId="3" hidden="1">'Book 2'!$I$7</definedName>
+    <definedName name="solver_rhs8" localSheetId="3" hidden="1">'Book 2'!$J$7</definedName>
+    <definedName name="solver_rhs9" localSheetId="3" hidden="1">'Book 2'!$K$7</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
@@ -148,7 +148,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -197,9 +199,6 @@
     <t>Microsoft Excel 16.24 Answer Report</t>
   </si>
   <si>
-    <t>Worksheet: [Module 5 assignment.xlsx]Sheet1</t>
-  </si>
-  <si>
     <t>Report Created: 05/13/19 09:10:14 PM</t>
   </si>
   <si>
@@ -440,9 +439,6 @@
     <t>total cost</t>
   </si>
   <si>
-    <t>Worksheet: [Module 5 assignment.xlsx]Problem 2</t>
-  </si>
-  <si>
     <t>Report Created: 05/13/19 09:25:21 PM</t>
   </si>
   <si>
@@ -945,6 +941,12 @@
   </si>
   <si>
     <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>Worksheet: [Linear_Programming.xlsx]Sheet1</t>
+  </si>
+  <si>
+    <t>Worksheet: [Linear_Programming.xlsx]Book 2</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EE7495-8AD6-484E-A4D0-1A70D4D0BD53}">
   <dimension ref="B1:P12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1622,10 +1624,10 @@
     <row r="1" spans="2:16" ht="30" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:16" ht="30" customHeight="1">
       <c r="B2" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>259</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>261</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>0</v>
@@ -1761,7 +1763,7 @@
     <row r="6" spans="2:16" ht="30" customHeight="1" thickBot="1"/>
     <row r="7" spans="2:16" ht="30" customHeight="1" thickBot="1">
       <c r="B7" s="23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" s="22">
         <f>((C3*H3)+(C4*I3)+(C5*J3))</f>
@@ -1811,7 +1813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A049FEA-9239-3E4F-B53E-5D06C390817D}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1831,82 +1835,82 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" thickBot="1">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1">
       <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1">
       <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D16" s="5">
         <v>651221.42859999998</v>
@@ -1917,32 +1921,32 @@
     </row>
     <row r="19" spans="1:7" ht="17" thickBot="1">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1">
       <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D21" s="6">
         <v>16157.142857142857</v>
@@ -1951,15 +1955,15 @@
         <v>16157.142857142857</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D22" s="6">
         <v>6200</v>
@@ -1968,15 +1972,15 @@
         <v>6200</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" thickBot="1">
       <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D23" s="7">
         <v>2600</v>
@@ -1985,7 +1989,7 @@
         <v>2600</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" thickBot="1">
@@ -1995,39 +1999,39 @@
     </row>
     <row r="27" spans="1:7" ht="17" thickBot="1">
       <c r="B27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D28" s="6">
         <v>19014.285714285714</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="G28" s="4">
         <v>4385.7142857142862</v>
@@ -2035,19 +2039,19 @@
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D29" s="6">
         <v>46800</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -2055,19 +2059,19 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D30" s="6">
         <v>12882.857142857143</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" s="4">
         <v>10517.142857142857</v>
@@ -2075,19 +2079,19 @@
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D31" s="6">
         <v>16157.142857142857</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="4">
         <v>4842.8571428571431</v>
@@ -2095,19 +2099,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D32" s="6">
         <v>6200</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" s="4">
         <v>6300</v>
@@ -2115,19 +2119,19 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D33" s="6">
         <v>2600</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G33" s="4">
         <v>1600</v>
@@ -2135,19 +2139,19 @@
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D34" s="6">
         <v>16157.142857142857</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G34" s="6">
         <v>2157.1428571428569</v>
@@ -2155,19 +2159,19 @@
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D35" s="6">
         <v>6200</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" s="6">
         <v>0</v>
@@ -2175,19 +2179,19 @@
     </row>
     <row r="36" spans="2:7" ht="17" thickBot="1">
       <c r="B36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D36" s="7">
         <v>2600</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" s="7">
         <v>0</v>
@@ -2203,7 +2207,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2219,72 +2223,72 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" thickBot="1">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" thickBot="1">
       <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D9" s="4">
         <v>16157.142857142857</v>
@@ -2304,10 +2308,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D10" s="4">
         <v>6200</v>
@@ -2327,10 +2331,10 @@
     </row>
     <row r="11" spans="1:8" ht="17" thickBot="1">
       <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D11" s="2">
         <v>2600</v>
@@ -2357,50 +2361,50 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" thickBot="1">
       <c r="B15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D16" s="4">
         <v>19014.285714285714</v>
@@ -2420,10 +2424,10 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D17" s="4">
         <v>46800</v>
@@ -2443,10 +2447,10 @@
     </row>
     <row r="18" spans="2:8" ht="17" thickBot="1">
       <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D18" s="2">
         <v>12882.857142857143</v>
@@ -2473,7 +2477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0A0360-F74E-C740-9AEB-891E9E6707DB}">
   <dimension ref="B1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2486,51 +2490,51 @@
     <row r="2" spans="2:16" ht="30" customHeight="1">
       <c r="B2" s="12"/>
       <c r="C2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="P2" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="30" customHeight="1">
       <c r="B3" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="24">
         <v>2.15</v>
@@ -2577,7 +2581,7 @@
     </row>
     <row r="4" spans="2:16" ht="30" customHeight="1">
       <c r="B4" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="24">
         <v>1.95</v>
@@ -2624,7 +2628,7 @@
     </row>
     <row r="5" spans="2:16" ht="30" customHeight="1">
       <c r="B5" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C5" s="24">
         <v>1.7</v>
@@ -2671,7 +2675,7 @@
     </row>
     <row r="6" spans="2:16" ht="30" customHeight="1">
       <c r="B6" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="24">
         <v>0.6</v>
@@ -2718,7 +2722,7 @@
     </row>
     <row r="7" spans="2:16" ht="30" customHeight="1" thickBot="1">
       <c r="B7" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="15">
         <v>5000</v>
@@ -2765,14 +2769,14 @@
     <row r="8" spans="2:16" ht="30" customHeight="1" thickBot="1"/>
     <row r="9" spans="2:16" ht="30" customHeight="1" thickBot="1">
       <c r="B9" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="27">
         <f>SUM(C7:N7)</f>
         <v>93700</v>
       </c>
       <c r="O9" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P9" s="27">
         <f>SUM(P3:P6)</f>
@@ -2783,51 +2787,51 @@
     <row r="12" spans="2:16" ht="30" customHeight="1">
       <c r="B12" s="12"/>
       <c r="C12" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F12" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="H12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="I12" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="J12" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="K12" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="L12" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="M12" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="N12" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="O12" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="P12" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="30" customHeight="1">
       <c r="B13" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="11">
         <v>0</v>
@@ -2875,7 +2879,7 @@
     </row>
     <row r="14" spans="2:16" ht="30" customHeight="1">
       <c r="B14" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="11">
         <v>0</v>
@@ -2923,7 +2927,7 @@
     </row>
     <row r="15" spans="2:16" ht="30" customHeight="1">
       <c r="B15" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C15" s="11">
         <v>5000</v>
@@ -2971,7 +2975,7 @@
     </row>
     <row r="16" spans="2:16" ht="30" customHeight="1">
       <c r="B16" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="11">
         <v>0</v>
@@ -3019,7 +3023,7 @@
     </row>
     <row r="17" spans="2:16" ht="30" customHeight="1" thickBot="1">
       <c r="B17" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="15">
         <f>SUM(C13:C16)</f>
@@ -3078,7 +3082,7 @@
     <row r="18" spans="2:16" ht="30" customHeight="1" thickBot="1"/>
     <row r="19" spans="2:16" ht="30" customHeight="1" thickBot="1">
       <c r="B19" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="22">
         <f>SUMPRODUCT(C3:O6,C13:O16)</f>
@@ -3094,7 +3098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50899260-E466-5342-A404-A52724AC35FF}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3113,82 +3119,82 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" thickBot="1">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1">
       <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1">
       <c r="B16" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" s="7">
         <v>0</v>
@@ -3199,32 +3205,32 @@
     </row>
     <row r="19" spans="1:6" ht="17" thickBot="1">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" thickBot="1">
       <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="6">
         <v>0</v>
@@ -3233,15 +3239,15 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="6">
         <v>0</v>
@@ -3250,15 +3256,15 @@
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D23" s="6">
         <v>0</v>
@@ -3267,15 +3273,15 @@
         <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" s="6">
         <v>0</v>
@@ -3284,15 +3290,15 @@
         <v>3700</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D25" s="6">
         <v>0</v>
@@ -3301,15 +3307,15 @@
         <v>0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D26" s="6">
         <v>0</v>
@@ -3318,15 +3324,15 @@
         <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D27" s="6">
         <v>0</v>
@@ -3335,15 +3341,15 @@
         <v>0</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D28" s="6">
         <v>0</v>
@@ -3352,15 +3358,15 @@
         <v>9000</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" s="6">
         <v>0</v>
@@ -3369,15 +3375,15 @@
         <v>3300</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D30" s="6">
         <v>0</v>
@@ -3386,15 +3392,15 @@
         <v>12000</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D31" s="6">
         <v>0</v>
@@ -3403,15 +3409,15 @@
         <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D32" s="6">
         <v>0</v>
@@ -3420,15 +3426,15 @@
         <v>0</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D33" s="6">
         <v>0</v>
@@ -3437,15 +3443,15 @@
         <v>12000</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D34" s="6">
         <v>0</v>
@@ -3454,15 +3460,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D35" s="6">
         <v>0</v>
@@ -3471,15 +3477,15 @@
         <v>0</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D36" s="6">
         <v>0</v>
@@ -3488,15 +3494,15 @@
         <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D37" s="6">
         <v>0</v>
@@ -3505,15 +3511,15 @@
         <v>0</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D38" s="6">
         <v>0</v>
@@ -3522,15 +3528,15 @@
         <v>4500</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D39" s="6">
         <v>0</v>
@@ -3539,15 +3545,15 @@
         <v>4700</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D40" s="6">
         <v>0</v>
@@ -3556,15 +3562,15 @@
         <v>0</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D41" s="6">
         <v>0</v>
@@ -3573,15 +3579,15 @@
         <v>0</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D42" s="6">
         <v>0</v>
@@ -3590,15 +3596,15 @@
         <v>0</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D43" s="6">
         <v>0</v>
@@ -3607,15 +3613,15 @@
         <v>0</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D44" s="6">
         <v>0</v>
@@ -3624,15 +3630,15 @@
         <v>9500</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D45" s="6">
         <v>0</v>
@@ -3641,15 +3647,15 @@
         <v>16000</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D46" s="6">
         <v>0</v>
@@ -3658,15 +3664,15 @@
         <v>300</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D47" s="6">
         <v>0</v>
@@ -3675,15 +3681,15 @@
         <v>5000</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D48" s="6">
         <v>0</v>
@@ -3692,15 +3698,15 @@
         <v>0</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D49" s="6">
         <v>0</v>
@@ -3709,15 +3715,15 @@
         <v>4200</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D50" s="6">
         <v>0</v>
@@ -3726,15 +3732,15 @@
         <v>0</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D51" s="6">
         <v>0</v>
@@ -3743,15 +3749,15 @@
         <v>0</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D52" s="6">
         <v>0</v>
@@ -3760,15 +3766,15 @@
         <v>2800</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D53" s="6">
         <v>0</v>
@@ -3777,15 +3783,15 @@
         <v>3000</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D54" s="6">
         <v>0</v>
@@ -3794,15 +3800,15 @@
         <v>0</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D55" s="6">
         <v>0</v>
@@ -3811,15 +3817,15 @@
         <v>0</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="6">
         <v>0</v>
@@ -3828,15 +3834,15 @@
         <v>0</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="6">
         <v>0</v>
@@ -3845,15 +3851,15 @@
         <v>0</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="6">
         <v>0</v>
@@ -3862,15 +3868,15 @@
         <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="6">
         <v>0</v>
@@ -3879,15 +3885,15 @@
         <v>0</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="6">
         <v>0</v>
@@ -3896,15 +3902,15 @@
         <v>0</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="6">
         <v>0</v>
@@ -3913,15 +3919,15 @@
         <v>16000</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="6">
         <v>0</v>
@@ -3930,15 +3936,15 @@
         <v>0</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="6">
         <v>0</v>
@@ -3947,15 +3953,15 @@
         <v>0</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="6">
         <v>0</v>
@@ -3964,15 +3970,15 @@
         <v>0</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="B65" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="6">
         <v>0</v>
@@ -3981,15 +3987,15 @@
         <v>0</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="6">
         <v>0</v>
@@ -3998,15 +4004,15 @@
         <v>0</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D67" s="6">
         <v>0</v>
@@ -4015,15 +4021,15 @@
         <v>0</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="B68" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D68" s="6">
         <v>0</v>
@@ -4032,15 +4038,15 @@
         <v>0</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="B69" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="6">
         <v>0</v>
@@ -4049,15 +4055,15 @@
         <v>0</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="B70" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D70" s="6">
         <v>0</v>
@@ -4066,15 +4072,15 @@
         <v>0</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="B71" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" s="6">
         <v>0</v>
@@ -4083,15 +4089,15 @@
         <v>0</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="17" thickBot="1">
       <c r="B72" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="7">
         <v>0</v>
@@ -4100,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="17" thickBot="1">
@@ -4110,39 +4116,39 @@
     </row>
     <row r="76" spans="1:7" ht="17" thickBot="1">
       <c r="B76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="B77" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D77" s="6">
         <v>5000</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G77" s="4">
         <v>0</v>
@@ -4150,19 +4156,19 @@
     </row>
     <row r="78" spans="1:7">
       <c r="B78" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D78" s="6">
         <v>16000</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G78" s="4">
         <v>0</v>
@@ -4170,19 +4176,19 @@
     </row>
     <row r="79" spans="1:7">
       <c r="B79" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D79" s="6">
         <v>4200</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G79" s="4">
         <v>0</v>
@@ -4190,19 +4196,19 @@
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D80" s="6">
         <v>3700</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G80" s="4">
         <v>0</v>
@@ -4210,19 +4216,19 @@
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D81" s="6">
         <v>4500</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G81" s="4">
         <v>0</v>
@@ -4230,19 +4236,19 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D82" s="6">
         <v>7500</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G82" s="4">
         <v>0</v>
@@ -4250,19 +4256,19 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D83" s="6">
         <v>3000</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G83" s="4">
         <v>0</v>
@@ -4270,19 +4276,19 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D84" s="6">
         <v>9000</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G84" s="4">
         <v>0</v>
@@ -4290,19 +4296,19 @@
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D85" s="6">
         <v>3300</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G85" s="4">
         <v>0</v>
@@ -4310,19 +4316,19 @@
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D86" s="6">
         <v>12000</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G86" s="4">
         <v>0</v>
@@ -4330,19 +4336,19 @@
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D87" s="6">
         <v>9500</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G87" s="4">
         <v>0</v>
@@ -4350,19 +4356,19 @@
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D88" s="6">
         <v>16000</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G88" s="4">
         <v>0</v>
@@ -4370,19 +4376,19 @@
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D89" s="6">
         <v>12300</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G89" s="4">
         <v>0</v>
@@ -4390,19 +4396,19 @@
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D90" s="6">
         <v>40000</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G90" s="4">
         <v>0</v>
@@ -4410,19 +4416,19 @@
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D91" s="6">
         <v>35000</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G91" s="4">
         <v>0</v>
@@ -4430,19 +4436,19 @@
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D92" s="6">
         <v>15000</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G92" s="4">
         <v>0</v>
@@ -4450,19 +4456,19 @@
     </row>
     <row r="93" spans="2:7" ht="17" thickBot="1">
       <c r="B93" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D93" s="7">
         <v>16000</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G93" s="2">
         <v>0</v>
@@ -4478,7 +4484,7 @@
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4494,72 +4500,72 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17" thickBot="1">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" thickBot="1">
       <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -4579,10 +4585,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -4602,10 +4608,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -4625,10 +4631,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="4">
         <v>3700</v>
@@ -4648,10 +4654,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" s="4">
         <v>0</v>
@@ -4671,10 +4677,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -4694,10 +4700,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -4717,10 +4723,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" s="4">
         <v>9000</v>
@@ -4740,10 +4746,10 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D17" s="4">
         <v>3300</v>
@@ -4763,10 +4769,10 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D18" s="4">
         <v>12000</v>
@@ -4786,10 +4792,10 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -4809,10 +4815,10 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -4832,10 +4838,10 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D21" s="4">
         <v>12000</v>
@@ -4855,10 +4861,10 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D22" s="4">
         <v>0</v>
@@ -4878,10 +4884,10 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -4901,10 +4907,10 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -4924,10 +4930,10 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -4947,10 +4953,10 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D26" s="4">
         <v>4500</v>
@@ -4970,10 +4976,10 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D27" s="4">
         <v>4700</v>
@@ -4993,10 +4999,10 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -5016,10 +5022,10 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -5039,10 +5045,10 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -5062,10 +5068,10 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
@@ -5085,10 +5091,10 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D32" s="4">
         <v>9500</v>
@@ -5108,10 +5114,10 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D33" s="4">
         <v>16000</v>
@@ -5131,10 +5137,10 @@
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D34" s="4">
         <v>300</v>
@@ -5154,10 +5160,10 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D35" s="4">
         <v>5000</v>
@@ -5177,10 +5183,10 @@
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
@@ -5200,10 +5206,10 @@
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D37" s="4">
         <v>4200</v>
@@ -5223,10 +5229,10 @@
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -5246,10 +5252,10 @@
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D39" s="4">
         <v>0</v>
@@ -5269,10 +5275,10 @@
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D40" s="4">
         <v>2800</v>
@@ -5292,10 +5298,10 @@
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D41" s="4">
         <v>3000</v>
@@ -5315,10 +5321,10 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
@@ -5338,10 +5344,10 @@
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D43" s="4">
         <v>0</v>
@@ -5361,10 +5367,10 @@
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -5384,10 +5390,10 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
@@ -5407,10 +5413,10 @@
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
@@ -5430,10 +5436,10 @@
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
@@ -5453,10 +5459,10 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D48" s="4">
         <v>0</v>
@@ -5476,10 +5482,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="B49" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D49" s="4">
         <v>16000</v>
@@ -5499,10 +5505,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="B50" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
@@ -5522,10 +5528,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="B51" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -5545,10 +5551,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="B52" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
@@ -5568,10 +5574,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="B53" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
@@ -5591,10 +5597,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="B54" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -5614,10 +5620,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="B55" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
@@ -5637,10 +5643,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="B56" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
@@ -5660,10 +5666,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="B57" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D57" s="4">
         <v>0</v>
@@ -5683,10 +5689,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="B58" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D58" s="4">
         <v>0</v>
@@ -5706,10 +5712,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="B59" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D59" s="4">
         <v>0</v>
@@ -5729,10 +5735,10 @@
     </row>
     <row r="60" spans="1:8" ht="17" thickBot="1">
       <c r="B60" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D60" s="2">
         <v>0</v>
@@ -5759,50 +5765,50 @@
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" thickBot="1">
       <c r="B64" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D64" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G64" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H64" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="65" spans="2:8">
       <c r="B65" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D65" s="4">
         <v>5000</v>
@@ -5822,10 +5828,10 @@
     </row>
     <row r="66" spans="2:8">
       <c r="B66" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D66" s="4">
         <v>16000</v>
@@ -5845,10 +5851,10 @@
     </row>
     <row r="67" spans="2:8">
       <c r="B67" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D67" s="4">
         <v>4200</v>
@@ -5868,10 +5874,10 @@
     </row>
     <row r="68" spans="2:8">
       <c r="B68" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D68" s="4">
         <v>3700</v>
@@ -5891,10 +5897,10 @@
     </row>
     <row r="69" spans="2:8">
       <c r="B69" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D69" s="4">
         <v>4500</v>
@@ -5914,10 +5920,10 @@
     </row>
     <row r="70" spans="2:8">
       <c r="B70" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D70" s="4">
         <v>7500</v>
@@ -5937,10 +5943,10 @@
     </row>
     <row r="71" spans="2:8">
       <c r="B71" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D71" s="4">
         <v>3000</v>
@@ -5960,10 +5966,10 @@
     </row>
     <row r="72" spans="2:8">
       <c r="B72" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D72" s="4">
         <v>9000</v>
@@ -5983,10 +5989,10 @@
     </row>
     <row r="73" spans="2:8">
       <c r="B73" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D73" s="4">
         <v>3300</v>
@@ -6006,10 +6012,10 @@
     </row>
     <row r="74" spans="2:8">
       <c r="B74" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D74" s="4">
         <v>12000</v>
@@ -6029,10 +6035,10 @@
     </row>
     <row r="75" spans="2:8">
       <c r="B75" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D75" s="4">
         <v>9500</v>
@@ -6052,10 +6058,10 @@
     </row>
     <row r="76" spans="2:8">
       <c r="B76" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D76" s="4">
         <v>16000</v>
@@ -6075,10 +6081,10 @@
     </row>
     <row r="77" spans="2:8">
       <c r="B77" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D77" s="4">
         <v>12300</v>
@@ -6098,10 +6104,10 @@
     </row>
     <row r="78" spans="2:8">
       <c r="B78" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D78" s="4">
         <v>40000</v>
@@ -6121,10 +6127,10 @@
     </row>
     <row r="79" spans="2:8">
       <c r="B79" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D79" s="4">
         <v>35000</v>
@@ -6144,10 +6150,10 @@
     </row>
     <row r="80" spans="2:8">
       <c r="B80" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D80" s="4">
         <v>15000</v>
@@ -6167,10 +6173,10 @@
     </row>
     <row r="81" spans="2:8" ht="17" thickBot="1">
       <c r="B81" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D81" s="2">
         <v>16000</v>
